--- a/PDD.xlsx
+++ b/PDD.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDE016-AFED-4058-9635-9C28F2754C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FA92A-D020-47C1-856A-AC9138DA0A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14230" yWindow="3100" windowWidth="23280" windowHeight="15980" xr2:uid="{5B904A37-3511-41DD-B434-169A3B38B9A3}"/>
+    <workbookView xWindow="-20415" yWindow="465" windowWidth="19935" windowHeight="16380" xr2:uid="{5B904A37-3511-41DD-B434-169A3B38B9A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -54,13 +55,106 @@
   </si>
   <si>
     <t>EV</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Online marketing</t>
+  </si>
+  <si>
+    <t>Transaction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +163,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -95,16 +202,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{39BB31FD-4144-47F1-8690-06D74B2A82C4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,6 +242,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4F9CFF-DA30-8FA0-B169-7E4422FA455A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="19707"/>
+          <a:ext cx="0" cy="6437586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,16 +618,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015C42-B9F8-477C-91E6-57F5C9643830}">
   <dimension ref="J2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,32 +633,1033 @@
         <v>119.23</v>
       </c>
     </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="5">
+        <v>5909.7929999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="5">
+        <f>+K2*K3/4</f>
+        <v>176156.1548475</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="5">
+        <f>(65295.431+60393+243166.321)*0.14</f>
+        <v>51639.665280000001</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="5">
+        <f>5175.904*0.14</f>
+        <v>724.62656000000015</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <f>+K4-K5+K6</f>
+        <v>125241.1161275</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474D9734-B435-4C76-B3CD-3B72E9D413D9}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="L16:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="7" max="15" width="9.140625" style="4"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7">
+        <v>31023.4</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>37932.830999999998</v>
+      </c>
+      <c r="F3" s="7">
+        <v>39687.678</v>
+      </c>
+      <c r="G3" s="7">
+        <v>48675.618000000002</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>49115.866000000002</v>
+      </c>
+      <c r="J3" s="7">
+        <v>49351.021999999997</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8796.6280000000006</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>14347.916999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>29152.692999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>40205.417999999998</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>47943.665000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>50003.379000000001</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <f>+C4+C3</f>
+        <v>39820.028000000006</v>
+      </c>
+      <c r="D5" s="10">
+        <v>37637.050000000003</v>
+      </c>
+      <c r="E5" s="10">
+        <f>+E4+E3</f>
+        <v>52280.748</v>
+      </c>
+      <c r="F5" s="10">
+        <f>+F4+F3</f>
+        <v>68840.370999999999</v>
+      </c>
+      <c r="G5" s="10">
+        <f>+G4+G3</f>
+        <v>88881.035999999993</v>
+      </c>
+      <c r="H5" s="10">
+        <v>86812.058999999994</v>
+      </c>
+      <c r="I5" s="10">
+        <f>+I4+I3</f>
+        <v>97059.531000000003</v>
+      </c>
+      <c r="J5" s="10">
+        <f>+J4+J3</f>
+        <v>99354.400999999998</v>
+      </c>
+      <c r="K5" s="10">
+        <f>+G5*1.3</f>
+        <v>115545.3468</v>
+      </c>
+      <c r="L5" s="10">
+        <f>+H5*1.2</f>
+        <v>104174.4708</v>
+      </c>
+      <c r="M5" s="10">
+        <f>+I5*1.1</f>
+        <v>106765.48410000002</v>
+      </c>
+      <c r="N5" s="10">
+        <f>+J5*1.1</f>
+        <v>109289.84110000001</v>
+      </c>
+      <c r="O5" s="10">
+        <f>+K5*1.1</f>
+        <v>127099.88148000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8926.7049999999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11125.285</v>
+      </c>
+      <c r="E6" s="7">
+        <v>18689.787</v>
+      </c>
+      <c r="F6" s="7">
+        <v>26830.233</v>
+      </c>
+      <c r="G6" s="7">
+        <v>35078.271999999997</v>
+      </c>
+      <c r="H6" s="7">
+        <v>32694.686000000002</v>
+      </c>
+      <c r="I6" s="7">
+        <v>33698.097999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>39709.214</v>
+      </c>
+      <c r="K6" s="7">
+        <f>+K5-K7</f>
+        <v>46218.138720000003</v>
+      </c>
+      <c r="L6" s="7">
+        <f>+L5-L7</f>
+        <v>41669.78832</v>
+      </c>
+      <c r="M6" s="7">
+        <f>+M5-M7</f>
+        <v>42706.193640000012</v>
+      </c>
+      <c r="N6" s="7">
+        <f>+N5-N7</f>
+        <v>43715.936440000005</v>
+      </c>
+      <c r="O6" s="7">
+        <f>+O5-O7</f>
+        <v>50839.952592000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <f>+C5-C6</f>
+        <v>30893.323000000004</v>
+      </c>
+      <c r="D7" s="7">
+        <f>+D5-D6</f>
+        <v>26511.765000000003</v>
+      </c>
+      <c r="E7" s="7">
+        <f>+E5-E6</f>
+        <v>33590.960999999996</v>
+      </c>
+      <c r="F7" s="7">
+        <f>+F5-F6</f>
+        <v>42010.137999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <f>+G5-G6</f>
+        <v>53802.763999999996</v>
+      </c>
+      <c r="H7" s="7">
+        <f>+H5-H6</f>
+        <v>54117.372999999992</v>
+      </c>
+      <c r="I7" s="7">
+        <f>+I5-I6</f>
+        <v>63361.433000000005</v>
+      </c>
+      <c r="J7" s="7">
+        <f>+J5-J6</f>
+        <v>59645.186999999998</v>
+      </c>
+      <c r="K7" s="7">
+        <f>+K5*0.6</f>
+        <v>69327.208079999997</v>
+      </c>
+      <c r="L7" s="7">
+        <f>+L5*0.6</f>
+        <v>62504.682479999996</v>
+      </c>
+      <c r="M7" s="7">
+        <f>+M5*0.6</f>
+        <v>64059.290460000004</v>
+      </c>
+      <c r="N7" s="7">
+        <f>+N5*0.6</f>
+        <v>65573.90466</v>
+      </c>
+      <c r="O7" s="7">
+        <f>+O5*0.6</f>
+        <v>76259.928888000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <v>17732.383999999998</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16259.688</v>
+      </c>
+      <c r="E8" s="7">
+        <v>17542.2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>21748.449000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>26638.524000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>23410.654999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>26049.136999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <v>30483.8</v>
+      </c>
+      <c r="K8" s="7">
+        <f>+G8*1.05</f>
+        <v>27970.450200000003</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" ref="L8:L10" si="0">+H8*1.05</f>
+        <v>24581.187750000001</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" ref="M8:M10" si="1">+I8*1.05</f>
+        <v>27351.593850000001</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:N10" si="2">+J8*1.05</f>
+        <v>32007.99</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" ref="O8:O10" si="3">+K8*1.05</f>
+        <v>29368.972710000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1640.527</v>
+      </c>
+      <c r="D9" s="7">
+        <v>816.40200000000004</v>
+      </c>
+      <c r="E9" s="7">
+        <v>596.03300000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>758.34500000000003</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1904.8420000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1823.4449999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1838.55</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1805.576</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ref="K9:K10" si="4">+G9*1.05</f>
+        <v>2000.0841000000003</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>1914.61725</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="1"/>
+        <v>1930.4775</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
+        <v>1895.8548000000001</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="3"/>
+        <v>2100.0883050000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2406.6770000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2506.6570000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2733.9639999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2847.3229999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2864.43</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2909.62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2909.21</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3063.3530000000001</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
+        <v>3007.6514999999999</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>3055.1010000000001</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="1"/>
+        <v>3054.6705000000002</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
+        <v>3216.5206500000004</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
+        <v>3158.034075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <f>+C10+C9+C8</f>
+        <v>21779.588</v>
+      </c>
+      <c r="D11" s="7">
+        <f>+D10+D9+D8</f>
+        <v>19582.746999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <f>+E10+E9+E8</f>
+        <v>20872.197</v>
+      </c>
+      <c r="F11" s="7">
+        <f>+F10+F9+F8</f>
+        <v>25354.116999999998</v>
+      </c>
+      <c r="G11" s="7">
+        <f>+G10+G9+G8</f>
+        <v>31407.796000000002</v>
+      </c>
+      <c r="H11" s="7">
+        <f>+H10+H9+H8</f>
+        <v>28143.719999999998</v>
+      </c>
+      <c r="I11" s="7">
+        <f>+I10+I9+I8</f>
+        <v>30796.896999999997</v>
+      </c>
+      <c r="J11" s="7">
+        <f>+J10+J9+J8</f>
+        <v>35352.728999999999</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ref="K11:O11" si="5">+K10+K9+K8</f>
+        <v>32978.185800000007</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
+        <v>29550.906000000003</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="5"/>
+        <v>32336.741850000002</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="5"/>
+        <v>37120.365450000005</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="5"/>
+        <v>34627.095090000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <f>+C7-C11</f>
+        <v>9113.7350000000042</v>
+      </c>
+      <c r="D12" s="7">
+        <f>+D7-D11</f>
+        <v>6929.0180000000037</v>
+      </c>
+      <c r="E12" s="7">
+        <f>+E7-E11</f>
+        <v>12718.763999999996</v>
+      </c>
+      <c r="F12" s="7">
+        <f>+F7-F11</f>
+        <v>16656.021000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <f>+G7-G11</f>
+        <v>22394.967999999993</v>
+      </c>
+      <c r="H12" s="7">
+        <f>+H7-H11</f>
+        <v>25973.652999999995</v>
+      </c>
+      <c r="I12" s="7">
+        <f>+I7-I11</f>
+        <v>32564.536000000007</v>
+      </c>
+      <c r="J12" s="7">
+        <f>+J7-J11</f>
+        <v>24292.457999999999</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ref="K12:O12" si="6">+K7-K11</f>
+        <v>36349.02227999999</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="6"/>
+        <v>32953.776479999993</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="6"/>
+        <v>31722.548610000002</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="6"/>
+        <v>28453.539209999995</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="6"/>
+        <v>41632.833798000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1351.698+168.825</f>
+        <v>1520.5230000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <f>1463.599+1227.52</f>
+        <v>2691.1189999999997</v>
+      </c>
+      <c r="E13" s="7">
+        <f>2287.741+1106.471</f>
+        <v>3394.212</v>
+      </c>
+      <c r="F13" s="7">
+        <f>2127.356+290.384</f>
+        <v>2417.7400000000002</v>
+      </c>
+      <c r="G13" s="7">
+        <f>4359.384+0.328204</f>
+        <v>4359.7122040000004</v>
+      </c>
+      <c r="H13" s="7">
+        <f>5048.589+1881.248</f>
+        <v>6929.8369999999995</v>
+      </c>
+      <c r="I13" s="7">
+        <f>4855.592+493.258</f>
+        <v>5348.8499999999995</v>
+      </c>
+      <c r="J13" s="7">
+        <f>5416.08+0.018606</f>
+        <v>5416.0986059999996</v>
+      </c>
+      <c r="K13" s="7">
+        <f>+J13</f>
+        <v>5416.0986059999996</v>
+      </c>
+      <c r="L13" s="7">
+        <f>+K13</f>
+        <v>5416.0986059999996</v>
+      </c>
+      <c r="M13" s="7">
+        <f>+L13</f>
+        <v>5416.0986059999996</v>
+      </c>
+      <c r="N13" s="7">
+        <f>+M13</f>
+        <v>5416.0986059999996</v>
+      </c>
+      <c r="O13" s="7">
+        <f>+N13</f>
+        <v>5416.0986059999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <f>+C12+C13</f>
+        <v>10634.258000000005</v>
+      </c>
+      <c r="D14" s="7">
+        <f>+D12+D13</f>
+        <v>9620.1370000000024</v>
+      </c>
+      <c r="E14" s="7">
+        <f>+E12+E13</f>
+        <v>16112.975999999995</v>
+      </c>
+      <c r="F14" s="7">
+        <f>+F12+F13</f>
+        <v>19073.761000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <f>+G12+G13</f>
+        <v>26754.680203999993</v>
+      </c>
+      <c r="H14" s="7">
+        <f>+H12+H13</f>
+        <v>32903.489999999991</v>
+      </c>
+      <c r="I14" s="7">
+        <f>+I12+I13</f>
+        <v>37913.386000000006</v>
+      </c>
+      <c r="J14" s="7">
+        <f>+J12+J13</f>
+        <v>29708.556605999998</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14:O14" si="7">+K12+K13</f>
+        <v>41765.12088599999</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="7"/>
+        <v>38369.875085999993</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="7"/>
+        <v>37138.647215999998</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="7"/>
+        <v>33869.637815999995</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="7"/>
+        <v>47048.932404000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1065.6130000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1597.7750000000001</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3158.442</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3513.48</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3580.2069999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5067.7520000000004</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5914.6130000000003</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4201.62</v>
+      </c>
+      <c r="K15" s="7">
+        <f>+K14*0.2</f>
+        <v>8353.024177199999</v>
+      </c>
+      <c r="L15" s="7">
+        <f>+L14*0.2</f>
+        <v>7673.9750171999985</v>
+      </c>
+      <c r="M15" s="7">
+        <f>+M14*0.2</f>
+        <v>7427.7294431999999</v>
+      </c>
+      <c r="N15" s="7">
+        <f>+N14*0.2</f>
+        <v>6773.927563199999</v>
+      </c>
+      <c r="O15" s="7">
+        <f>+O14*0.2</f>
+        <v>9409.7864808000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <f>+C14-C15</f>
+        <v>9568.6450000000059</v>
+      </c>
+      <c r="D16" s="7">
+        <f>+D14-D15</f>
+        <v>8022.3620000000028</v>
+      </c>
+      <c r="E16" s="7">
+        <f>+E14-E15</f>
+        <v>12954.533999999996</v>
+      </c>
+      <c r="F16" s="7">
+        <f>+F14-F15</f>
+        <v>15560.281000000003</v>
+      </c>
+      <c r="G16" s="7">
+        <f>+G14-G15</f>
+        <v>23174.473203999994</v>
+      </c>
+      <c r="H16" s="7">
+        <f>+H14-H15</f>
+        <v>27835.73799999999</v>
+      </c>
+      <c r="I16" s="7">
+        <f>+I14-I15</f>
+        <v>31998.773000000005</v>
+      </c>
+      <c r="J16" s="7">
+        <f>+J14-J15</f>
+        <v>25506.936605999999</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" ref="K16:O16" si="8">+K14-K15</f>
+        <v>33412.096708799989</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="8"/>
+        <v>30695.900068799994</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="8"/>
+        <v>29710.9177728</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="8"/>
+        <v>27095.710252799996</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="8"/>
+        <v>37639.145923200005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <f>+C16/C18</f>
+        <v>1.6471502503265512</v>
+      </c>
+      <c r="D17" s="8">
+        <f>+D16/D18</f>
+        <v>1.3712553274335442</v>
+      </c>
+      <c r="E17" s="8">
+        <f>+E16/E18</f>
+        <v>2.2207716734883634</v>
+      </c>
+      <c r="F17" s="8">
+        <f>+F16/F18</f>
+        <v>2.6530281996800742</v>
+      </c>
+      <c r="G17" s="8">
+        <f>+G16/G18</f>
+        <v>3.9392405216403925</v>
+      </c>
+      <c r="H17" s="8">
+        <f>+H16/H18</f>
+        <v>4.7123140412062172</v>
+      </c>
+      <c r="I17" s="8">
+        <f>+I16/I18</f>
+        <v>5.4000361816297575</v>
+      </c>
+      <c r="J17" s="8">
+        <f>+J16/J18</f>
+        <v>4.31604568992518</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" ref="K17:O17" si="9">+K16/K18</f>
+        <v>5.6536830831130622</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="9"/>
+        <v>5.1940736450159921</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="9"/>
+        <v>5.0274041362870072</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="9"/>
+        <v>4.5848831342823679</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="9"/>
+        <v>6.3689448891357117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5809.2120000000004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5850.3779999999997</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5833.348</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5865.1019999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5882.98</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5907.0209999999997</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5925.6589999999997</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5909.7929999999997</v>
+      </c>
+      <c r="K18" s="7">
+        <f>+J18</f>
+        <v>5909.7929999999997</v>
+      </c>
+      <c r="L18" s="7">
+        <f>+K18</f>
+        <v>5909.7929999999997</v>
+      </c>
+      <c r="M18" s="7">
+        <f>+L18</f>
+        <v>5909.7929999999997</v>
+      </c>
+      <c r="N18" s="7">
+        <f>+M18</f>
+        <v>5909.7929999999997</v>
+      </c>
+      <c r="O18" s="7">
+        <f>+N18</f>
+        <v>5909.7929999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="11">
+        <f>+G5/C5-1</f>
+        <v>1.2320686464610215</v>
+      </c>
+      <c r="H20" s="11">
+        <f>+H5/D5-1</f>
+        <v>1.3065585373986535</v>
+      </c>
+      <c r="I20" s="11">
+        <f>+I5/E5-1</f>
+        <v>0.85650616552004966</v>
+      </c>
+      <c r="J20" s="11">
+        <f>+J5/F5-1</f>
+        <v>0.44325777965374424</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20:O20" si="10">+K5/G5-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11">
+        <f>+C7/C5</f>
+        <v>0.77582373874774768</v>
+      </c>
+      <c r="D21" s="11">
+        <f>+D7/D5</f>
+        <v>0.70440603075958397</v>
+      </c>
+      <c r="E21" s="11">
+        <f>+E7/E5</f>
+        <v>0.64251110179219306</v>
+      </c>
+      <c r="F21" s="11">
+        <f>+F7/F5</f>
+        <v>0.61025438111017738</v>
+      </c>
+      <c r="G21" s="11">
+        <f>+G7/G5</f>
+        <v>0.60533457328287665</v>
+      </c>
+      <c r="H21" s="11">
+        <f>+H7/H5</f>
+        <v>0.62338543312283368</v>
+      </c>
+      <c r="I21" s="11">
+        <f>+I7/I5</f>
+        <v>0.65281000585094529</v>
+      </c>
+      <c r="J21" s="11">
+        <f>+J7/J5</f>
+        <v>0.60032757884575239</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" ref="K21:O21" si="11">+K7/K5</f>
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>